--- a/m1/u1/ejercicios/20191030/Funciones de Texto/Extraer Emails.xlsx
+++ b/m1/u1/ejercicios/20191030/Funciones de Texto/Extraer Emails.xlsx
@@ -448,10 +448,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,11 +461,12 @@
     <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
@@ -480,7 +481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -488,129 +489,157 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>MID(C2,FIND("@",C2,1),LEN(C2))</f>
-        <v>@gmail.com</v>
+        <f>LEFT(C2,FIND("@",C2,1)-1)</f>
+        <v>cmaureira</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="str">
-        <f>RIGHT(C2,FIND("@",C2,1)-1)</f>
+        <f>MID(C2,FIND("@",C2)+1,LEN(C2))</f>
         <v>gmail.com</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="str">
+        <f>RIGHT(C2,LEN(C2)-FIND("@",C2))</f>
+        <v>gmail.com</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D2:D8" si="0">FIND("@",C3,1)</f>
-        <v>10</v>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D8" si="0">LEFT(C3,FIND("@",C3,1)-1)</f>
+        <v>isanhueza</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="3" t="str">
-        <f t="shared" ref="F3:F8" si="1">RIGHT(C3,FIND("@",C3,1)-1)</f>
-        <v>tmail.com</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F3:F8" si="1">MID(C3,FIND("@",C3)+1,LEN(C3))</f>
+        <v>hotmail.com</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G8" si="2">RIGHT(C3,LEN(C3)-FIND("@",C3))</f>
+        <v>hotmail.com</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>nnavarrete</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>te@vtr.net</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>vtr.net</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>vtr.net</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>nmend.iaco</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>@gmail.com</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>gmail.com</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>gmail.com</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>j.123-street</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>et@mundo.com</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>mundo.com</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>mundo.com</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>carlos-javier-barria</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>r-barria@outlook.com</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+        <v>outlook.com</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>outlook.com</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>lsaez</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>ez.es</v>
+        <v>lzsaez.es</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>lzsaez.es</v>
       </c>
     </row>
   </sheetData>
